--- a/Excel1.xlsx
+++ b/Excel1.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="シート追加" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,40 +367,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>